--- a/script/wsh/tips/14.excel/excelfunc/excelfunc.xlsx
+++ b/script/wsh/tips/14.excel/excelfunc/excelfunc.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Database" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="DSUM" sheetId="4" r:id="rId4"/>
+    <sheet name="SUMIFS" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Database!$A$1:$H$52</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="285">
   <si>
     <t>名前</t>
   </si>
@@ -983,13 +984,115 @@
   <si>
     <t>10*</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>範囲</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SUMPRODUCT</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>A02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>A02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>数式を変更→</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SUMIFS</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>=A02</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>=01*</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;&gt;01*</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>=*</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Sheet4!B8:B65535</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Sheet4!E8:E65535</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Sheet4!G8:G65535</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>99</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,8 +1107,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,6 +1144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1158,22 +1281,107 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Meiryo UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="B3:C6" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="B3:C6"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="項目" dataDxfId="1"/>
+    <tableColumn id="2" name="範囲" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1215,7 +1423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1250,7 +1458,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1542,6 +1750,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1549,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3092,15 +3301,16 @@
   <autoFilter ref="A1:H52"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3163,13 +3373,195 @@
         <v>3.22</v>
       </c>
     </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="11.875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="19">
+        <f ca="1">SUMPRODUCT((INDIRECT($C$4)=B10)*(LEFT(INDIRECT($C$5),2)=C10)*INDIRECT($C$6))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="19">
+        <f ca="1">SUMPRODUCT((INDIRECT($C$4)=B11)*(LEFT(INDIRECT($C$5),2)=C11)*INDIRECT($C$6))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="19">
+        <f ca="1">SUMPRODUCT((INDIRECT($C$4)=B12)*(LEFT(INDIRECT($C$5),2)=C12)*INDIRECT($C$6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="19">
+        <f ca="1">SUMPRODUCT((INDIRECT($C$4)=B13)*INDIRECT($C$6))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="19">
+        <f ca="1">SUMIFS(INDIRECT($C$6), INDIRECT($C$4), B16, INDIRECT($C$5), C16)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="19">
+        <f ca="1">SUMIFS(INDIRECT($C$6), INDIRECT($C$4), B17, INDIRECT($C$5), C17)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="19">
+        <f ca="1">SUMIFS(INDIRECT($C$6), INDIRECT($C$4), B18, INDIRECT($C$5), C18)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -3671,5 +4063,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>